--- a/cmd/timetable/data/Игры.xlsx
+++ b/cmd/timetable/data/Игры.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
   </si>
@@ -29,21 +29,6 @@
   </si>
   <si>
     <t>возможна переиговка (0-нет, 1-да)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Тур_0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -370,40 +355,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>